--- a/doc/excel/党建/[sample_party]基层党组织录入样表.xlsx
+++ b/doc/excel/党建/[sample_party]基层党组织录入样表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\廖敏工作文件夹\全部高校\组工一体化平台数据录入样表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\骥贤-功能开发文件\20201127之后功能开发文件\相关导入样表修改\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90516913-1A36-4C56-A6D8-8172C436DDAE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59536B0-B160-4A5E-8C95-C87739290D17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>编号</t>
   </si>
@@ -55,13 +55,7 @@
     <t>成立时间</t>
   </si>
   <si>
-    <t>020100</t>
-  </si>
-  <si>
     <t>教育学部党委</t>
-  </si>
-  <si>
-    <t>分党委</t>
   </si>
   <si>
     <t>否</t>
@@ -83,10 +77,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>020100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>是否大中型（企业）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -100,6 +90,14 @@
   </si>
   <si>
     <t>中共xxxx大学教育学部委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级党委</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -107,7 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -152,6 +150,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF393939"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -195,7 +207,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -209,9 +221,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -220,14 +229,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,18 +558,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="28.75" customWidth="1"/>
     <col min="3" max="3" width="18.125" customWidth="1"/>
     <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="4" customWidth="1"/>
     <col min="6" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="22.75" customWidth="1"/>
     <col min="10" max="10" width="23.625" customWidth="1"/>
@@ -564,36 +580,36 @@
     <col min="14" max="14" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" ht="21.75" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -608,49 +624,85 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A2" s="2">
+        <v>222222</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="30" customHeight="1">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/doc/excel/党建/[sample_party]基层党组织录入样表.xlsx
+++ b/doc/excel/党建/[sample_party]基层党组织录入样表.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\骥贤-功能开发文件\20201127之后功能开发文件\相关导入样表修改\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\doc\excel\党建\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59536B0-B160-4A5E-8C95-C87739290D17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>编号</t>
   </si>
@@ -98,13 +97,17 @@
   </si>
   <si>
     <t>二级党委</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系地址</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -557,11 +560,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -576,11 +579,12 @@
     <col min="10" max="10" width="23.625" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="19.5" customWidth="1"/>
-    <col min="13" max="13" width="19.375" customWidth="1"/>
-    <col min="14" max="14" width="21.75" customWidth="1"/>
+    <col min="13" max="13" width="25" customWidth="1"/>
+    <col min="14" max="14" width="19.375" customWidth="1"/>
+    <col min="15" max="15" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21.75" customHeight="1">
+    <row r="1" spans="1:15" ht="21.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,13 +622,16 @@
         <v>7</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="36.75" customHeight="1">
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="36.75" customHeight="1">
       <c r="A2" s="2">
         <v>222222</v>
       </c>
@@ -661,14 +668,15 @@
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" ht="30" customHeight="1">
+    <row r="4" spans="1:15" ht="30" customHeight="1">
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -677,7 +685,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:14" ht="30" customHeight="1">
+    <row r="5" spans="1:15" ht="30" customHeight="1">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -686,7 +694,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1">
+    <row r="6" spans="1:15" ht="30" customHeight="1">
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -695,7 +703,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:14" ht="30" customHeight="1">
+    <row r="7" spans="1:15" ht="30" customHeight="1">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
